--- a/biology/Botanique/Berberidaceae/Berberidaceae.xlsx
+++ b/biology/Botanique/Berberidaceae/Berberidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Berberidaceae (Berbéridacées) regroupe des plantes dicotylédones. Elle comprend 715 espèces réparties en 14 genres à travers le monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Berberidaceae (Berbéridacées) regroupe des plantes dicotylédones. Elle comprend 715 espèces réparties en 14 genres à travers le monde.
 Ce sont des arbustes aux tissus colorés en jaune par la berbérine ou des plantes plus ou moins herbacées, à feuilles fréquemment transformées en épines des régions tempérées à subtropicales largement répandues dans l'hémisphère nord.
 En France, on peut citer les genres :
 Berberis qui comprend l'épine-vinette et des espèces ornementales au feuillage rouge utilisées pour la réalisation de haies résistantes (épineuses). L'épine vinette a longtemps été systématiquement détruite car elle est un réservoir naturel de la rouille du blé.
@@ -518,9 +530,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Berberis forme latinisée de l'arabe البُربَريس (al-burbaris) pour le Berbéris[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Berberis forme latinisée de l'arabe البُربَريس (al-burbaris) pour le Berbéris. 
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 avr. 2010) :
 genre Achlys
 genre Berberis
 genre Bongardia
@@ -568,7 +584,7 @@
 genre Sinopodophyllum
 genre Tinomiscium
 genre Vancouveria
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Aceranthus C.Morren &amp; Decne.
 genre Achlys DC.
 genre Berberis L.
@@ -587,12 +603,12 @@
 genre Ranzania T.Ito
 genre Sinopodophyllum T.S.Ying
 genre Vancouveria C.Morren &amp; Decne.
-Selon DELTA Angio           (22 avr. 2010)[5] :
+Selon DELTA Angio           (22 avr. 2010) :
 genre Berberis
 genre Epimedium
 genre Mahonia
 genre Vancouveria
-Selon ITIS      (22 avr. 2010)[6] :
+Selon ITIS      (22 avr. 2010) :
 genre Achlys DC.
 genre Berberis L.
 genre Caulophyllum Michx.
